--- a/Youth Database Report.xlsx
+++ b/Youth Database Report.xlsx
@@ -14,9 +14,437 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="141">
+  <si>
+    <t>Albany Drop-in Monthly Youth Report</t>
+  </si>
+  <si>
+    <t>Report generated: 2016-09-06</t>
+  </si>
+  <si>
+    <t>Alijah  Alexander</t>
+  </si>
+  <si>
+    <t>Date of Birth:</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>7/4/2016</t>
+  </si>
+  <si>
+    <t>7/3/2016</t>
+  </si>
+  <si>
+    <t>7/5/2016</t>
+  </si>
+  <si>
+    <t>Hannah  Anderson</t>
+  </si>
+  <si>
+    <t>Jordan  Andreas</t>
+  </si>
+  <si>
+    <t>Hayden  Arnett</t>
+  </si>
+  <si>
+    <t>Neil  Arnold</t>
+  </si>
+  <si>
+    <t>Logan  Arthur</t>
+  </si>
+  <si>
+    <t>Jazzmlee  Barrera</t>
+  </si>
+  <si>
+    <t>Dallas  Bidwell</t>
+  </si>
+  <si>
+    <t>Taylor  Bidwell</t>
+  </si>
+  <si>
+    <t>Danyelle  Bishop</t>
+  </si>
+  <si>
+    <t>Kylee  Borgano</t>
+  </si>
+  <si>
+    <t>Ray  Brier</t>
+  </si>
+  <si>
+    <t>Jasmine  Briggs</t>
+  </si>
+  <si>
+    <t>Lily  Brown</t>
+  </si>
+  <si>
+    <t>Rayray  Brown</t>
+  </si>
+  <si>
+    <t>Kate  Bryan</t>
+  </si>
+  <si>
+    <t>Bri (Shorty)  Budlong</t>
+  </si>
+  <si>
+    <t>Hunter  Burris</t>
+  </si>
+  <si>
+    <t>Violet  Carpenter</t>
+  </si>
+  <si>
+    <t>Joey  Castro</t>
+  </si>
+  <si>
+    <t>Emily  Chapman</t>
+  </si>
+  <si>
+    <t>Bobby  Chavez</t>
+  </si>
+  <si>
+    <t>Issac  Coatreras</t>
+  </si>
+  <si>
+    <t>Julian  Cox</t>
+  </si>
+  <si>
+    <t>Tanner  Cox</t>
+  </si>
+  <si>
+    <t>Ronnie  Crawford</t>
+  </si>
+  <si>
+    <t>Anthony  DeAvilla</t>
+  </si>
+  <si>
+    <t>Timber  DeRose</t>
+  </si>
+  <si>
+    <t>Matthew  Donley</t>
+  </si>
+  <si>
+    <t>Cassidy  Downs</t>
+  </si>
+  <si>
+    <t>George  Dunn</t>
+  </si>
+  <si>
+    <t>Aidan  Eger</t>
+  </si>
+  <si>
+    <t>Laurel  Elliot</t>
+  </si>
+  <si>
+    <t>Timmy  Flangher</t>
+  </si>
+  <si>
+    <t>Megan  Flemming</t>
+  </si>
+  <si>
+    <t>Danny  Flick</t>
+  </si>
+  <si>
+    <t>Travis  Fox</t>
+  </si>
+  <si>
+    <t>Jaycob  Garland</t>
+  </si>
+  <si>
+    <t>Coridus  Gentry</t>
+  </si>
+  <si>
+    <t>Lenee  Glessmen</t>
+  </si>
+  <si>
+    <t>Shoshana  Gold</t>
+  </si>
+  <si>
+    <t>Sophia  Gonzalez</t>
+  </si>
+  <si>
+    <t>Molly  Green</t>
+  </si>
+  <si>
+    <t>Robert  Green</t>
+  </si>
+  <si>
+    <t>Brittnee  Grell</t>
+  </si>
+  <si>
+    <t>Alexis (Moon)  Grisham</t>
+  </si>
+  <si>
+    <t>Kayce  Grover</t>
+  </si>
+  <si>
+    <t>Alyiah  Haja-Mohamed</t>
+  </si>
+  <si>
+    <t>Taha  Haji</t>
+  </si>
+  <si>
+    <t>Felicity  Halberg</t>
+  </si>
+  <si>
+    <t>Jared  Hamel</t>
+  </si>
+  <si>
+    <t>Jazzlyn  Hamel</t>
+  </si>
+  <si>
+    <t>BeaZea  Haras</t>
+  </si>
+  <si>
+    <t>Emily  Hayes</t>
+  </si>
+  <si>
+    <t>Alex  Hill</t>
+  </si>
+  <si>
+    <t>Raymond  Hogan</t>
+  </si>
+  <si>
+    <t>Katelynn  Horner</t>
+  </si>
+  <si>
+    <t>Caleb  Howard</t>
+  </si>
+  <si>
+    <t>Gabe  Howard</t>
+  </si>
+  <si>
+    <t>Daijah  Hunter</t>
+  </si>
+  <si>
+    <t>Andrew  Hyde</t>
+  </si>
+  <si>
+    <t>Michael  Iadeveareo</t>
+  </si>
+  <si>
+    <t>Anessa  Johnson</t>
+  </si>
+  <si>
+    <t>Dylan  Johnson</t>
+  </si>
+  <si>
+    <t>Hayden  Jones</t>
+  </si>
+  <si>
+    <t>Taeler  Jones</t>
+  </si>
+  <si>
+    <t>Mahlia  Joy</t>
+  </si>
+  <si>
+    <t>Nathanyel  Kalamaha</t>
+  </si>
+  <si>
+    <t>Lexi  Kealey</t>
+  </si>
+  <si>
+    <t>Sierra  Kittel</t>
+  </si>
+  <si>
+    <t>Andrew  Koker-Gosda</t>
+  </si>
+  <si>
+    <t>Cadence  Lake</t>
+  </si>
+  <si>
+    <t>Shae  Langley</t>
+  </si>
+  <si>
+    <t>Aiden  Lee</t>
+  </si>
+  <si>
+    <t>Austin  Leeper</t>
+  </si>
+  <si>
+    <t>ShyAnn  Lunski</t>
+  </si>
+  <si>
+    <t>Briar  Lynch</t>
+  </si>
+  <si>
+    <t>Veronica  Mace</t>
+  </si>
+  <si>
+    <t>Martin  Martinez</t>
+  </si>
+  <si>
+    <t>Kaylee  Meeds</t>
+  </si>
+  <si>
+    <t>Lyndzie  Meeds</t>
+  </si>
+  <si>
+    <t>Henry  Meneses</t>
+  </si>
+  <si>
+    <t>Ashton  Miller</t>
+  </si>
+  <si>
+    <t>Carlie  Miller</t>
+  </si>
+  <si>
+    <t>Lexi  Miller</t>
+  </si>
+  <si>
+    <t>Maddy  Miller</t>
+  </si>
+  <si>
+    <t>Nathan  Miller</t>
+  </si>
+  <si>
+    <t>Rihanna  Miller</t>
+  </si>
+  <si>
+    <t>Colton  Moore</t>
+  </si>
+  <si>
+    <t>MaAin  Murinez</t>
+  </si>
+  <si>
+    <t>Ben  Murphy</t>
+  </si>
+  <si>
+    <t>Ewan  Murray</t>
+  </si>
+  <si>
+    <t>Tehya  Nelson</t>
+  </si>
+  <si>
+    <t>Xavier  Nelson</t>
+  </si>
+  <si>
+    <t>Gypislynn  Papesh</t>
+  </si>
+  <si>
+    <t>Elizabeth  Preston</t>
+  </si>
+  <si>
+    <t>Meredith  Ramirez</t>
+  </si>
+  <si>
+    <t>Amber  Randall</t>
+  </si>
+  <si>
+    <t>Katelyn  Randall</t>
+  </si>
+  <si>
+    <t>Dakota  Reece</t>
+  </si>
+  <si>
+    <t>Aiden  Reilly</t>
+  </si>
+  <si>
+    <t>Austin  Rogers</t>
+  </si>
+  <si>
+    <t>Elisha  Rowe</t>
+  </si>
+  <si>
+    <t>Gloria  Rowe</t>
+  </si>
+  <si>
+    <t>Corbin  Ruby</t>
+  </si>
+  <si>
+    <t>Danielle  Ruprecht</t>
+  </si>
+  <si>
+    <t>Greg  Sather</t>
+  </si>
+  <si>
+    <t>Annaliese  Schmidt</t>
+  </si>
+  <si>
+    <t>Trent  Shobe</t>
+  </si>
+  <si>
+    <t>Landan  Simons</t>
+  </si>
+  <si>
+    <t>Tiras  Simons</t>
+  </si>
+  <si>
+    <t>Jalen  Solesbee</t>
+  </si>
+  <si>
+    <t>Gage  Spencer</t>
+  </si>
+  <si>
+    <t>Lexus  Spies</t>
+  </si>
+  <si>
+    <t>Blake  Stephens</t>
+  </si>
+  <si>
+    <t>Kelsey  Stokes</t>
+  </si>
+  <si>
+    <t>Jacob  Stokesbary</t>
+  </si>
+  <si>
+    <t>Kayla  Stokesbary</t>
+  </si>
+  <si>
+    <t>Kailey  Strange</t>
+  </si>
+  <si>
+    <t>Jacob  Tagen</t>
+  </si>
+  <si>
+    <t>Trinity  Teel</t>
+  </si>
+  <si>
+    <t>Jeremy  Thorpe</t>
+  </si>
+  <si>
+    <t>Quentin  Tierce</t>
+  </si>
+  <si>
+    <t>Ethan  Tyler</t>
+  </si>
+  <si>
+    <t>Preston  Ullrich</t>
+  </si>
+  <si>
+    <t>Jordan  Wallace</t>
+  </si>
+  <si>
+    <t>Hailey  Warner</t>
+  </si>
+  <si>
+    <t>Mikayla  Weis</t>
+  </si>
+  <si>
+    <t>Jimmy  Wilcox</t>
+  </si>
+  <si>
+    <t>Lydia  Williamen</t>
+  </si>
+  <si>
+    <t>Keyarra  Wright</t>
+  </si>
+  <si>
+    <t>Hope  Yarbrough</t>
+  </si>
+  <si>
+    <t>Keandre  Yglesias</t>
+  </si>
+  <si>
+    <t>Talita  sndriamalala</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,13 +452,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA1D490"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -45,8 +495,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,12 +793,1253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:ED9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="135" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:134">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:134">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:134">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CA3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CG3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CI3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CM3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CN3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CO3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CQ3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="CR3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="CS3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CT3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="CU3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="CV3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CX3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DA3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DB3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DC3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="DD3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DE3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="DF3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="DG3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="DH3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DI3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="DJ3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="DK3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="DL3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DM3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="DN3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="DO3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="DP3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DQ3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="DR3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="DS3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="DT3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="DU3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="DV3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="DW3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="DX3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DY3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="DZ3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="EA3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="EB3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="EC3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="ED3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:134">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>3</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:134">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>4</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>4</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:134">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:134">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:134">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
